--- a/Reconcililation/IHub Reconciliation.xlsx
+++ b/Reconcililation/IHub Reconciliation.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">PRINCIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1619205</t>
+    <t xml:space="preserve">1619215</t>
   </si>
   <si>
     <t xml:space="preserve">EUR</t>
@@ -222,8 +222,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1282,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1619205</v>
+        <v>1619215</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>4929</v>
